--- a/REGULAR/OJT/NEW DONE/PASCUA, LORENA.xlsx
+++ b/REGULAR/OJT/NEW DONE/PASCUA, LORENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD77AF93-0478-4295-AE71-80332D14F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -634,7 +633,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1497,7 +1496,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1539,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1603,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1663,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1729,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1792,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1890,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1949,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2014,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2057,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2132,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2318,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2384,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2442,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2508,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2564,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2639,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2682,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2748,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2804,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2902,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2965,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,25 +3031,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3062,13 +3061,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3077,14 +3076,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3388,7 +3387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3398,7 +3397,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3406,34 +3405,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A361" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A355" activePane="bottomLeft"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="F365" sqref="F365"/>
+      <selection pane="bottomLeft" activeCell="K371" sqref="K371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3456,7 +3455,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3474,7 +3473,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3502,7 +3501,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3515,7 +3514,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3532,7 +3531,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3576,7 +3575,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>167.95600000000002</v>
+        <v>171.70600000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3586,12 +3585,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>287.45799999999997</v>
+        <v>290.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3613,7 +3612,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35612</v>
@@ -3654,7 +3653,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A16" si="0">EDATE(A12,1)</f>
         <v>35643</v>
@@ -3675,7 +3674,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -3696,7 +3695,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -3717,7 +3716,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -3738,7 +3737,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>35765</v>
@@ -3759,7 +3758,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3776,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>35796</v>
@@ -3798,7 +3797,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -3819,7 +3818,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -3840,7 +3839,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -3861,7 +3860,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -3882,7 +3881,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -3903,7 +3902,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -3924,7 +3923,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -3945,7 +3944,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -3966,7 +3965,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -3987,7 +3986,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4008,7 +4007,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>36130</v>
@@ -4033,7 +4032,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>48</v>
       </c>
@@ -4051,7 +4050,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36161</v>
@@ -4076,7 +4075,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -4101,7 +4100,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A45" si="2">EDATE(A33,1)</f>
         <v>36220</v>
@@ -4126,7 +4125,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4153,7 +4152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>55</v>
@@ -4175,7 +4174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>36281</v>
@@ -4202,7 +4201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -4223,7 +4222,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4250,7 +4249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
@@ -4270,7 +4269,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>36373</v>
@@ -4299,7 +4298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4320,7 +4319,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4341,7 +4340,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A43,1)</f>
         <v>36465</v>
@@ -4362,7 +4361,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -4387,7 +4386,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>49</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36526</v>
@@ -4430,7 +4429,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>36557</v>
@@ -4455,7 +4454,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A57" si="3">EDATE(A48,1)</f>
         <v>36586</v>
@@ -4482,7 +4481,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>69</v>
@@ -4502,7 +4501,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A49,1)</f>
         <v>36617</v>
@@ -4529,7 +4528,7 @@
         <v>36633</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4554,7 +4553,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4581,7 +4580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4606,7 +4605,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -4631,7 +4630,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -4656,7 +4655,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -4683,7 +4682,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>69</v>
@@ -4703,7 +4702,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A57,1)</f>
         <v>36831</v>
@@ -4728,7 +4727,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A59,1)</f>
         <v>36861</v>
@@ -4753,7 +4752,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>50</v>
       </c>
@@ -4771,7 +4770,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36892</v>
@@ -4798,7 +4797,7 @@
         <v>36922</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>75</v>
@@ -4818,7 +4817,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36923</v>
@@ -4843,7 +4842,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>79</v>
@@ -4863,7 +4862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36951</v>
@@ -4888,7 +4887,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" ref="A67:A73" si="4">EDATE(A66,1)</f>
         <v>36982</v>
@@ -4913,7 +4912,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -4938,7 +4937,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -4959,7 +4958,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -4980,7 +4979,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5001,7 +5000,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -5022,7 +5021,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5047,7 +5046,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>37196</v>
@@ -5072,7 +5071,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A74,1)</f>
         <v>37226</v>
@@ -5097,7 +5096,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>46</v>
@@ -5117,7 +5116,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>81</v>
       </c>
@@ -5135,7 +5134,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37257</v>
@@ -5160,7 +5159,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A78,1)</f>
         <v>37288</v>
@@ -5185,7 +5184,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" ref="A80:A89" si="5">EDATE(A79,1)</f>
         <v>37316</v>
@@ -5210,7 +5209,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -5231,7 +5230,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5252,7 +5251,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5273,7 +5272,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5294,7 +5293,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5319,7 +5318,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5340,7 +5339,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -5361,7 +5360,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5386,7 +5385,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -5411,7 +5410,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>82</v>
       </c>
@@ -5429,7 +5428,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>37622</v>
@@ -5450,7 +5449,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A91,1)</f>
         <v>37653</v>
@@ -5475,7 +5474,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" ref="A93:A104" si="6">EDATE(A92,1)</f>
         <v>37681</v>
@@ -5496,7 +5495,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -5517,7 +5516,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -5538,7 +5537,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5559,7 +5558,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -5580,7 +5579,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5601,7 +5600,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5622,7 +5621,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5649,7 +5648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>88</v>
@@ -5671,7 +5670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>91</v>
@@ -5691,7 +5690,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>37926</v>
@@ -5712,7 +5711,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -5737,7 +5736,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>83</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37987</v>
@@ -5776,7 +5775,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>38018</v>
@@ -5797,7 +5796,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A116" si="7">EDATE(A107,1)</f>
         <v>38047</v>
@@ -5818,7 +5817,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -5839,7 +5838,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -5860,7 +5859,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -5881,7 +5880,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -5902,7 +5901,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -5923,7 +5922,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -5944,7 +5943,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -5965,7 +5964,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -5986,7 +5985,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A116,1)</f>
         <v>38322</v>
@@ -6011,7 +6010,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>84</v>
       </c>
@@ -6029,7 +6028,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38353</v>
@@ -6050,7 +6049,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f>EDATE(A119,1)</f>
         <v>38384</v>
@@ -6071,7 +6070,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" ref="A121:A130" si="8">EDATE(A120,1)</f>
         <v>38412</v>
@@ -6092,7 +6091,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6113,7 +6112,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6134,7 +6133,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -6155,7 +6154,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6176,7 +6175,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -6197,7 +6196,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6218,7 +6217,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6245,7 +6244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6266,7 +6265,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -6291,7 +6290,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>85</v>
       </c>
@@ -6311,7 +6310,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>38718</v>
@@ -6336,7 +6335,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A132,1)</f>
         <v>38749</v>
@@ -6361,7 +6360,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" ref="A134:A143" si="9">EDATE(A133,1)</f>
         <v>38777</v>
@@ -6386,7 +6385,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="9"/>
         <v>38808</v>
@@ -6407,7 +6406,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -6428,7 +6427,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6453,7 +6452,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6480,7 +6479,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>99</v>
@@ -6498,12 +6497,12 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>287.45799999999997</v>
+        <v>290.20799999999997</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
         <v>38930</v>
@@ -6528,7 +6527,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="9"/>
         <v>38961</v>
@@ -6555,7 +6554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6580,7 +6579,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -6605,7 +6604,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A143,1)</f>
         <v>39052</v>
@@ -6630,7 +6629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>86</v>
       </c>
@@ -6648,7 +6647,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>39083</v>
@@ -6673,7 +6672,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>39114</v>
@@ -6694,7 +6693,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" ref="A148:A156" si="10">EDATE(A147,1)</f>
         <v>39142</v>
@@ -6715,7 +6714,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -6736,7 +6735,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -6757,7 +6756,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6778,7 +6777,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -6799,7 +6798,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -6826,7 +6825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -6847,7 +6846,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="10"/>
         <v>39356</v>
@@ -6868,7 +6867,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -6889,7 +6888,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>39417</v>
@@ -6914,7 +6913,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>87</v>
       </c>
@@ -6932,7 +6931,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>39448</v>
@@ -6953,7 +6952,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>39479</v>
@@ -6974,7 +6973,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A171" si="11">EDATE(A160,1)</f>
         <v>39508</v>
@@ -6999,7 +6998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -7020,7 +7019,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -7041,7 +7040,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7068,7 +7067,7 @@
         <v>39625</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>79</v>
@@ -7088,7 +7087,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>39630</v>
@@ -7109,7 +7108,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7134,7 +7133,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -7159,7 +7158,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -7180,7 +7179,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7201,7 +7200,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -7226,7 +7225,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="48" t="s">
         <v>112</v>
       </c>
@@ -7244,7 +7243,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f>EDATE(A171,1)</f>
         <v>39814</v>
@@ -7269,7 +7268,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A173,1)</f>
         <v>39845</v>
@@ -7296,7 +7295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>77</v>
@@ -7316,7 +7315,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39873</v>
@@ -7343,7 +7342,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>105</v>
@@ -7363,7 +7362,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>39904</v>
@@ -7384,7 +7383,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A185" si="12">EDATE(A178,1)</f>
         <v>39934</v>
@@ -7403,7 +7402,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -7422,7 +7421,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -7441,7 +7440,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -7460,7 +7459,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -7485,7 +7484,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -7510,7 +7509,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -7535,7 +7534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>126</v>
@@ -7555,7 +7554,7 @@
         <v>40144</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>127</v>
@@ -7575,7 +7574,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A185,1)</f>
         <v>40148</v>
@@ -7602,7 +7601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>88</v>
@@ -7624,7 +7623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>129</v>
@@ -7644,7 +7643,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>113</v>
       </c>
@@ -7662,7 +7661,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A188,1)</f>
         <v>40179</v>
@@ -7687,7 +7686,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>40210</v>
@@ -7712,7 +7711,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" ref="A194:A203" si="13">EDATE(A193,1)</f>
         <v>40238</v>
@@ -7737,7 +7736,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="13"/>
         <v>40269</v>
@@ -7762,7 +7761,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -7787,7 +7786,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -7812,7 +7811,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -7837,7 +7836,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -7858,7 +7857,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -7883,7 +7882,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -7908,7 +7907,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>40483</v>
@@ -7933,7 +7932,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -7958,7 +7957,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>114</v>
       </c>
@@ -7976,7 +7975,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>40544</v>
@@ -8001,7 +8000,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>40575</v>
@@ -8022,7 +8021,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A216" si="14">EDATE(A206,1)</f>
         <v>40603</v>
@@ -8047,7 +8046,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -8072,7 +8071,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -8097,7 +8096,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="14"/>
         <v>40695</v>
@@ -8118,7 +8117,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -8139,7 +8138,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -8160,7 +8159,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -8181,7 +8180,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -8202,7 +8201,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>40848</v>
@@ -8227,7 +8226,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="14"/>
         <v>40878</v>
@@ -8252,7 +8251,7 @@
       <c r="J216" s="12"/>
       <c r="K216" s="15"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>115</v>
       </c>
@@ -8270,7 +8269,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A216,1)</f>
         <v>40909</v>
@@ -8291,7 +8290,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>40940</v>
@@ -8312,7 +8311,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A228" si="15">EDATE(A219,1)</f>
         <v>40969</v>
@@ -8333,7 +8332,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="15"/>
         <v>41000</v>
@@ -8354,7 +8353,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="15"/>
         <v>41030</v>
@@ -8375,7 +8374,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -8396,7 +8395,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -8417,7 +8416,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -8438,7 +8437,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -8459,7 +8458,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -8480,7 +8479,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -8507,7 +8506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A228,1)</f>
         <v>41244</v>
@@ -8532,7 +8531,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="48" t="s">
         <v>116</v>
       </c>
@@ -8550,7 +8549,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A229,1)</f>
         <v>41275</v>
@@ -8571,7 +8570,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>41306</v>
@@ -8592,7 +8591,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" ref="A233:A242" si="16">EDATE(A232,1)</f>
         <v>41334</v>
@@ -8617,7 +8616,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -8644,7 +8643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="16"/>
         <v>41395</v>
@@ -8671,7 +8670,7 @@
         <v>41432</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -8696,7 +8695,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -8721,7 +8720,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -8746,7 +8745,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -8767,7 +8766,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -8792,7 +8791,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -8813,7 +8812,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -8840,7 +8839,7 @@
         <v>41625</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
         <v>117</v>
       </c>
@@ -8858,7 +8857,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>41640</v>
@@ -8879,7 +8878,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>41671</v>
@@ -8906,7 +8905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A255" si="17">EDATE(A245,1)</f>
         <v>41699</v>
@@ -8927,7 +8926,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="17"/>
         <v>41730</v>
@@ -8952,7 +8951,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -8973,7 +8972,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -8994,7 +8993,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -9019,7 +9018,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -9044,7 +9043,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -9065,7 +9064,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -9092,7 +9091,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -9113,7 +9112,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -9138,7 +9137,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>161</v>
       </c>
@@ -9156,7 +9155,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>42005</v>
@@ -9181,7 +9180,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>42036</v>
@@ -9206,7 +9205,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" ref="A259:A271" si="18">EDATE(A258,1)</f>
         <v>42064</v>
@@ -9231,7 +9230,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -9256,7 +9255,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -9281,7 +9280,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -9306,7 +9305,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -9331,7 +9330,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>168</v>
@@ -9351,7 +9350,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A263,1)</f>
         <v>42217</v>
@@ -9376,7 +9375,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -9403,7 +9402,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>170</v>
@@ -9423,7 +9422,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>42278</v>
@@ -9448,7 +9447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>171</v>
@@ -9468,7 +9467,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>42309</v>
@@ -9489,7 +9488,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -9510,7 +9509,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="48" t="s">
         <v>175</v>
       </c>
@@ -9528,7 +9527,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>42370</v>
@@ -9549,7 +9548,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A273,1)</f>
         <v>42401</v>
@@ -9576,7 +9575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" ref="A275:A284" si="19">EDATE(A274,1)</f>
         <v>42430</v>
@@ -9597,7 +9596,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -9624,7 +9623,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -9645,7 +9644,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9666,7 +9665,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9687,7 +9686,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -9708,7 +9707,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -9729,7 +9728,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -9750,7 +9749,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="19"/>
         <v>42675</v>
@@ -9771,7 +9770,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -9792,7 +9791,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>179</v>
       </c>
@@ -9810,7 +9809,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>42736</v>
@@ -9831,7 +9830,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A286,1)</f>
         <v>42767</v>
@@ -9852,7 +9851,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" ref="A288:A297" si="20">EDATE(A287,1)</f>
         <v>42795</v>
@@ -9873,7 +9872,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -9898,7 +9897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -9919,7 +9918,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -9940,7 +9939,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -9961,7 +9960,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -9982,7 +9981,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -10003,7 +10002,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -10024,7 +10023,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -10045,7 +10044,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="20"/>
         <v>43070</v>
@@ -10070,7 +10069,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
         <v>181</v>
       </c>
@@ -10088,7 +10087,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>43101</v>
@@ -10109,7 +10108,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A299,1)</f>
         <v>43132</v>
@@ -10130,7 +10129,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" ref="A301:A310" si="21">EDATE(A300,1)</f>
         <v>43160</v>
@@ -10151,7 +10150,7 @@
       <c r="J301" s="12"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="21"/>
         <v>43191</v>
@@ -10172,7 +10171,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -10193,7 +10192,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -10214,7 +10213,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -10241,7 +10240,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -10262,7 +10261,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -10283,7 +10282,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -10304,7 +10303,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -10325,7 +10324,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -10350,7 +10349,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>183</v>
       </c>
@@ -10368,7 +10367,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>43466</v>
@@ -10389,7 +10388,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A312,1)</f>
         <v>43497</v>
@@ -10410,7 +10409,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A323" si="22">EDATE(A313,1)</f>
         <v>43525</v>
@@ -10431,7 +10430,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -10452,7 +10451,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -10473,7 +10472,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -10494,7 +10493,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -10515,7 +10514,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -10536,7 +10535,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -10557,7 +10556,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="22"/>
         <v>43739</v>
@@ -10584,7 +10583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -10605,7 +10604,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -10630,7 +10629,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="48" t="s">
         <v>185</v>
       </c>
@@ -10648,7 +10647,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>43831</v>
@@ -10669,7 +10668,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A325,1)</f>
         <v>43862</v>
@@ -10690,7 +10689,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" ref="A327:A335" si="23">EDATE(A326,1)</f>
         <v>43891</v>
@@ -10717,7 +10716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -10738,7 +10737,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -10759,7 +10758,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -10780,7 +10779,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -10801,7 +10800,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -10822,7 +10821,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -10847,7 +10846,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -10868,7 +10867,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="23"/>
         <v>44136</v>
@@ -10889,7 +10888,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A335,1)</f>
         <v>44166</v>
@@ -10914,7 +10913,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>188</v>
       </c>
@@ -10932,7 +10931,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>44197</v>
@@ -10953,7 +10952,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>44228</v>
@@ -10974,7 +10973,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" ref="A340:A346" si="24">EDATE(A339,1)</f>
         <v>44256</v>
@@ -10995,7 +10994,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -11016,7 +11015,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -11037,7 +11036,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -11058,7 +11057,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -11079,7 +11078,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -11100,7 +11099,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -11125,7 +11124,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44470</v>
       </c>
@@ -11145,7 +11144,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44501</v>
       </c>
@@ -11165,7 +11164,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44531</v>
       </c>
@@ -11189,7 +11188,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="48" t="s">
         <v>190</v>
       </c>
@@ -11207,7 +11206,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44562</v>
       </c>
@@ -11227,7 +11226,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44593</v>
       </c>
@@ -11247,7 +11246,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44621</v>
       </c>
@@ -11267,7 +11266,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44652</v>
       </c>
@@ -11287,7 +11286,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44682</v>
       </c>
@@ -11307,7 +11306,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44713</v>
       </c>
@@ -11327,7 +11326,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44743</v>
       </c>
@@ -11347,7 +11346,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44774</v>
       </c>
@@ -11367,7 +11366,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44805</v>
       </c>
@@ -11391,7 +11390,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44835</v>
       </c>
@@ -11411,7 +11410,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44866</v>
       </c>
@@ -11437,7 +11436,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>169</v>
@@ -11459,7 +11458,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44896</v>
       </c>
@@ -11483,7 +11482,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>194</v>
       </c>
@@ -11501,7 +11500,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44927</v>
       </c>
@@ -11521,7 +11520,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44958</v>
       </c>
@@ -11547,57 +11546,73 @@
         <v>197</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="40"/>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="40">
+        <v>44986</v>
+      </c>
       <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D367" s="39"/>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G367" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="40"/>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="40">
+        <v>45017</v>
+      </c>
       <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
+      <c r="C368" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G368" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40"/>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40">
+        <v>45047</v>
+      </c>
       <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="40"/>
-      <c r="B370" s="20"/>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
@@ -11606,13 +11621,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H370" s="39"/>
+      <c r="H370" s="39">
+        <v>1</v>
+      </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="40"/>
+      <c r="K370" s="49">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="40">
+        <v>45108</v>
+      </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
@@ -11627,7 +11648,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11643,7 +11664,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11659,7 +11680,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11675,7 +11696,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11691,7 +11712,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11707,7 +11728,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11723,7 +11744,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11739,7 +11760,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11755,7 +11776,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11771,7 +11792,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11787,7 +11808,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11803,7 +11824,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11819,7 +11840,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11835,7 +11856,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11851,7 +11872,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11867,7 +11888,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11883,7 +11904,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11899,7 +11920,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11915,7 +11936,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11931,7 +11952,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11947,7 +11968,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11963,7 +11984,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11979,7 +12000,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11995,7 +12016,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12011,7 +12032,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12027,7 +12048,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12043,7 +12064,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -12059,7 +12080,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -12075,7 +12096,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -12091,7 +12112,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12107,7 +12128,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12123,7 +12144,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12139,7 +12160,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12155,7 +12176,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12171,7 +12192,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12187,7 +12208,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12203,7 +12224,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12219,7 +12240,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12235,7 +12256,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12251,7 +12272,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12267,7 +12288,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12283,7 +12304,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12299,7 +12320,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12315,7 +12336,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12331,7 +12352,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12347,7 +12368,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12363,7 +12384,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12379,7 +12400,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12395,7 +12416,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12411,7 +12432,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12427,7 +12448,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12443,7 +12464,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -12459,7 +12480,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -12475,7 +12496,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -12491,7 +12512,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12507,7 +12528,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12523,7 +12544,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12539,7 +12560,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12555,7 +12576,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12571,7 +12592,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12587,7 +12608,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12603,7 +12624,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12619,7 +12640,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12635,7 +12656,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12651,7 +12672,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12667,7 +12688,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12683,7 +12704,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="15"/>
       <c r="C438" s="42"/>
@@ -12714,10 +12735,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12740,7 +12761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12748,21 +12769,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12775,7 +12796,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12804,7 +12825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12830,17 +12851,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12861,7 +12882,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12888,7 +12909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12914,7 +12935,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12940,7 +12961,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12966,7 +12987,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12992,7 +13013,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13018,7 +13039,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13044,7 +13065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13070,7 +13091,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13090,7 +13111,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13110,7 +13131,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13130,7 +13151,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13151,7 +13172,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13172,7 +13193,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13193,7 +13214,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13214,7 +13235,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13235,7 +13256,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13256,7 +13277,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13277,7 +13298,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13298,7 +13319,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13319,7 +13340,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13340,7 +13361,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13361,7 +13382,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13382,7 +13403,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13403,7 +13424,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13424,7 +13445,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13445,7 +13466,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13466,7 +13487,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13487,7 +13508,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13508,7 +13529,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13529,7 +13550,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13550,7 +13571,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13559,7 +13580,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13568,7 +13589,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13577,7 +13598,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13586,7 +13607,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13595,7 +13616,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13604,7 +13625,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13613,7 +13634,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13622,7 +13643,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13631,7 +13652,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13640,7 +13661,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13649,7 +13670,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13658,7 +13679,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13667,7 +13688,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13676,7 +13697,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13685,7 +13706,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13694,7 +13715,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13703,7 +13724,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13712,7 +13733,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13721,7 +13742,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13730,7 +13751,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13739,7 +13760,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13748,7 +13769,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13757,7 +13778,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13766,7 +13787,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13775,7 +13796,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13784,7 +13805,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13793,7 +13814,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13802,7 +13823,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13811,7 +13832,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
